--- a/Dp/DP_sde.xlsx
+++ b/Dp/DP_sde.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravip\OneDrive\Desktop\weeklyDSA\Dp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9743A-5B59-4EEF-9C88-6246F30DEBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="168">
   <si>
     <t xml:space="preserve">Question marked with** are must do before interview </t>
   </si>
@@ -177,23 +186,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Ones and Zeroes </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>** 3DP Question</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -207,16 +219,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Cherry Pickup II  ** </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>3DP question</t>
     </r>
@@ -248,23 +262,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Partition Equal Subset Sum </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>** Most asked</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -350,16 +367,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Longest Increasing Subsequence ** </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>Highly Asked</t>
     </r>
@@ -373,16 +392,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Decode Ways II </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>** Highly Asked</t>
     </r>
@@ -575,77 +596,171 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -653,7 +768,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -686,96 +801,255 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1BB6978-DC54-4309-805D-30895B17E019}" name="Table1" displayName="Table1" ref="A3:E43" totalsRowShown="0">
+  <autoFilter ref="A3:E43" xr:uid="{F1BB6978-DC54-4309-805D-30895B17E019}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0C012EE2-5D24-4A50-9532-A0DA7144AE60}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6DF688E1-6C13-4D88-B7EE-F1DA4C70FE5A}" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A84B5863-88BB-4695-A0A1-7835D05170ED}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{72DB6D20-6B3B-4ED8-8EE2-5E20A85C8D0A}" name="Column3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{37D668A5-3B5A-41CF-BD84-84F9B1C6A084}" name="Column4" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -965,1040 +1239,1169 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="70.63"/>
-    <col customWidth="1" min="2" max="2" width="54.13"/>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="13">
       <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="D17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="D18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="D19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="D20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="D21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="D22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="D23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="13">
+      <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="D24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="13">
+      <c r="A25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="D25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="13">
+      <c r="A26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="13">
+      <c r="A27" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="D27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="13">
+      <c r="A28" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="D28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="13">
+      <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="D29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="13">
+      <c r="A30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="D30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="13">
+      <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="D31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="13">
+      <c r="A32" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="D32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" ht="13">
+      <c r="A33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="D33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" ht="13">
+      <c r="A34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="D34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" ht="13">
+      <c r="A35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="D35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" ht="13">
+      <c r="A36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="D36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" ht="13">
+      <c r="A37" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="D37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="13">
+      <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="D38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" ht="13">
+      <c r="A39" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="D39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" ht="13">
+      <c r="A40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="D40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" ht="13">
+      <c r="A41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="D41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="D42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="13">
+      <c r="A43" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="D43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="19" t="s">
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" ht="13">
+      <c r="A44" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D44" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="E44" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="19" t="s">
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" ht="13">
+      <c r="A45" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="D45" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E45" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="19" t="s">
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" ht="13">
+      <c r="A46" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="D46" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="E46" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" ht="13">
+      <c r="A47" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="D47" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="E47" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="19" t="s">
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" ht="13">
+      <c r="A48" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D48" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="E48" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="19" t="s">
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:8" ht="13">
+      <c r="A49" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="D49" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="E49" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="19" t="s">
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" ht="13">
+      <c r="A50" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D50" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="E50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="19" t="s">
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="1:8" ht="13">
+      <c r="A51" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D51" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="E51" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" ht="13">
+      <c r="A52" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D52" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="E52" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="19" t="s">
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" ht="13">
+      <c r="A53" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="D53" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="E53" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="19" t="s">
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" ht="13">
+      <c r="A54" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B54" s="17"/>
+      <c r="C54" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="D54" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="E54" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="19" t="s">
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8" ht="13">
+      <c r="A55" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B55" s="17"/>
+      <c r="C55" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="D55" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="E55" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="19" t="s">
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="1:8" ht="13">
+      <c r="A56" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="D56" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="E56" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="19" t="s">
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" ht="13">
+      <c r="A57" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="D57" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="E57" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="19" t="s">
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="1:8" ht="13">
+      <c r="A58" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="D58" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="E58" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="19" t="s">
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="D59" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="E59" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="D4"/>
-    <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="D5"/>
-    <hyperlink r:id="rId7" ref="B6"/>
-    <hyperlink r:id="rId8" ref="D6"/>
-    <hyperlink r:id="rId9" ref="B7"/>
-    <hyperlink r:id="rId10" ref="D7"/>
-    <hyperlink r:id="rId11" ref="B8"/>
-    <hyperlink r:id="rId12" ref="D8"/>
-    <hyperlink r:id="rId13" ref="B9"/>
-    <hyperlink r:id="rId14" ref="D9"/>
-    <hyperlink r:id="rId15" ref="B10"/>
-    <hyperlink r:id="rId16" ref="D10"/>
-    <hyperlink r:id="rId17" ref="B12"/>
-    <hyperlink r:id="rId18" ref="D12"/>
-    <hyperlink r:id="rId19" ref="B13"/>
-    <hyperlink r:id="rId20" ref="D13"/>
-    <hyperlink r:id="rId21" ref="B14"/>
-    <hyperlink r:id="rId22" ref="D14"/>
-    <hyperlink r:id="rId23" ref="B15"/>
-    <hyperlink r:id="rId24" ref="D15"/>
-    <hyperlink r:id="rId25" ref="B16"/>
-    <hyperlink r:id="rId26" ref="D16"/>
-    <hyperlink r:id="rId27" ref="B17"/>
-    <hyperlink r:id="rId28" ref="D17"/>
-    <hyperlink r:id="rId29" ref="B18"/>
-    <hyperlink r:id="rId30" ref="D18"/>
-    <hyperlink r:id="rId31" ref="B19"/>
-    <hyperlink r:id="rId32" ref="D19"/>
-    <hyperlink r:id="rId33" ref="B20"/>
-    <hyperlink r:id="rId34" ref="D20"/>
-    <hyperlink r:id="rId35" ref="B21"/>
-    <hyperlink r:id="rId36" ref="D21"/>
-    <hyperlink r:id="rId37" ref="B22"/>
-    <hyperlink r:id="rId38" ref="D22"/>
-    <hyperlink r:id="rId39" ref="B23"/>
-    <hyperlink r:id="rId40" ref="D23"/>
-    <hyperlink r:id="rId41" ref="B24"/>
-    <hyperlink r:id="rId42" ref="D24"/>
-    <hyperlink r:id="rId43" ref="B25"/>
-    <hyperlink r:id="rId44" ref="D25"/>
-    <hyperlink r:id="rId45" ref="B26"/>
-    <hyperlink r:id="rId46" ref="D26"/>
-    <hyperlink r:id="rId47" ref="B27"/>
-    <hyperlink r:id="rId48" ref="D27"/>
-    <hyperlink r:id="rId49" ref="B28"/>
-    <hyperlink r:id="rId50" ref="D28"/>
-    <hyperlink r:id="rId51" ref="B29"/>
-    <hyperlink r:id="rId52" ref="D29"/>
-    <hyperlink r:id="rId53" ref="B30"/>
-    <hyperlink r:id="rId54" ref="D30"/>
-    <hyperlink r:id="rId55" ref="B31"/>
-    <hyperlink r:id="rId56" ref="D31"/>
-    <hyperlink r:id="rId57" ref="B32"/>
-    <hyperlink r:id="rId58" ref="D32"/>
-    <hyperlink r:id="rId59" ref="B33"/>
-    <hyperlink r:id="rId60" ref="D33"/>
-    <hyperlink r:id="rId61" ref="B34"/>
-    <hyperlink r:id="rId62" ref="D34"/>
-    <hyperlink r:id="rId63" ref="B35"/>
-    <hyperlink r:id="rId64" ref="D35"/>
-    <hyperlink r:id="rId65" ref="B36"/>
-    <hyperlink r:id="rId66" ref="D36"/>
-    <hyperlink r:id="rId67" ref="B37"/>
-    <hyperlink r:id="rId68" ref="D37"/>
-    <hyperlink r:id="rId69" ref="B38"/>
-    <hyperlink r:id="rId70" ref="D38"/>
-    <hyperlink r:id="rId71" ref="B39"/>
-    <hyperlink r:id="rId72" ref="D39"/>
-    <hyperlink r:id="rId73" ref="B41"/>
-    <hyperlink r:id="rId74" ref="D41"/>
-    <hyperlink r:id="rId75" ref="B42"/>
-    <hyperlink r:id="rId76" ref="D42"/>
-    <hyperlink r:id="rId77" ref="B43"/>
-    <hyperlink r:id="rId78" ref="D43"/>
-    <hyperlink r:id="rId79" ref="B44"/>
-    <hyperlink r:id="rId80" ref="D44"/>
-    <hyperlink r:id="rId81" ref="B45"/>
-    <hyperlink r:id="rId82" ref="D45"/>
-    <hyperlink r:id="rId83" ref="B46"/>
-    <hyperlink r:id="rId84" ref="D46"/>
-    <hyperlink r:id="rId85" ref="B47"/>
-    <hyperlink r:id="rId86" ref="D47"/>
-    <hyperlink r:id="rId87" ref="B48"/>
-    <hyperlink r:id="rId88" ref="D48"/>
-    <hyperlink r:id="rId89" ref="B49"/>
-    <hyperlink r:id="rId90" ref="D49"/>
-    <hyperlink r:id="rId91" ref="B50"/>
-    <hyperlink r:id="rId92" ref="D50"/>
-    <hyperlink r:id="rId93" ref="B51"/>
-    <hyperlink r:id="rId94" ref="D51"/>
-    <hyperlink r:id="rId95" ref="B52"/>
-    <hyperlink r:id="rId96" ref="D52"/>
-    <hyperlink r:id="rId97" ref="B53"/>
-    <hyperlink r:id="rId98" ref="D53"/>
-    <hyperlink r:id="rId99" ref="B54"/>
-    <hyperlink r:id="rId100" ref="D54"/>
-    <hyperlink r:id="rId101" ref="B55"/>
-    <hyperlink r:id="rId102" ref="D55"/>
-    <hyperlink r:id="rId103" ref="B56"/>
-    <hyperlink r:id="rId104" ref="D56"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C23" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E23" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E24" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C25" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E25" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C26" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C27" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E27" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C28" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E28" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C29" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E29" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C30" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E30" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C31" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E31" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C32" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C33" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E33" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C34" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E34" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E35" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C36" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E36" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C37" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E37" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C38" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E38" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C39" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E39" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C40" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E40" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C41" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C42" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E42" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C43" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E44" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C45" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E45" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C46" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E46" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C47" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E47" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C48" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E48" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C49" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E49" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C50" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E50" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C51" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E51" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C52" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E52" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C53" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E53" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C54" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E54" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C55" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E55" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C56" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E56" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C57" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E57" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C58" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E58" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C59" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E59" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E12" r:id="rId105" xr:uid="{169E7506-D039-48F8-B10F-F3C33507E2E9}"/>
+    <hyperlink ref="E13" r:id="rId106" xr:uid="{8C33AA22-566A-4B16-8F1F-AF140D4377EA}"/>
   </hyperlinks>
-  <drawing r:id="rId105"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
+  <tableParts count="1">
+    <tablePart r:id="rId108"/>
+  </tableParts>
 </worksheet>
 </file>